--- a/results/mp/deberta/corona/confidence/126/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -127,15 +127,15 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
@@ -145,10 +145,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
   </si>
   <si>
     <t>care</t>
@@ -1556,25 +1556,25 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.683982683982684</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L24">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1582,25 +1582,25 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6764705882352942</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N25">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O25">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1608,25 +1608,25 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1712,25 +1712,25 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5950920245398773</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L30">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="N30">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>132</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1738,13 +1738,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5714285714285714</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="10:17">
